--- a/biology/Zoologie/Agriopis/Agriopis.xlsx
+++ b/biology/Zoologie/Agriopis/Agriopis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agriopis est un genre de lépidoptères (papillons) de la famille des Geometridae. Le nom vernaculaire des lépidoptères européens de ce genre est Hibernie, nom qu'ils partagent avec des papillons du genre Erannis. En effet, contrairement à la grande majorité des lépidoptères, les adultes de ces différentes espèces sont visibles en hiver. 
 </t>
@@ -511,13 +523,15 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Agriopis aurantiaria (Hübner, 1799) -- l'Hibernie orangée
 Agriopis aurantiaria aurantiaria (Hübner, 1799)
 Agriopis aurantiaria cleui Leraut, 1993
 Agriopis aurantiaria lariciaria (Scholz, 1947)
-Agriopis bajaria (Denis &amp; Schiffermüller, 1775) -- l'Hibernie messagère[1]
+Agriopis bajaria (Denis &amp; Schiffermüller, 1775) -- l'Hibernie messagère
 Agriopis beschkovi Ganev, 1987
 Agriopis leucophaearia (Denis &amp; Schiffermüller, 1775) -- l'Hibernie grisâtre
 Agriopis marginaria (Fabricius, 1776) -- l'Hibernie hâtive
